--- a/共享销售系统-页面导向.xlsx
+++ b/共享销售系统-页面导向.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongzequan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongzequan/project/hbnSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>设计图名称</t>
     <rPh sb="0" eb="1">
@@ -832,6 +832,10 @@
     <rPh sb="6" eb="7">
       <t>ke</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinQrcode.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,6 +1329,12 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
